--- a/projectdemo_pytest-interface-automation/data/Excel/webui_data_demo_duo.xlsx
+++ b/projectdemo_pytest-interface-automation/data/Excel/webui_data_demo_duo.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login_1" sheetId="1" r:id="rId1"/>
     <sheet name="select_project" sheetId="2" r:id="rId2"/>
-    <sheet name="quit" sheetId="3" r:id="rId3"/>
+    <sheet name="select_reset" sheetId="4" r:id="rId3"/>
+    <sheet name="quit" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>自动化测试用例名称：登录成功</t>
   </si>
@@ -60,7 +61,7 @@
     <t>http://123.60.88.124/login</t>
   </si>
   <si>
-    <t>访问中资创智管理系统</t>
+    <t>访问rto系统</t>
   </si>
   <si>
     <t>sleep</t>
@@ -87,12 +88,21 @@
     <t>//*[@id="app"]/div/form/div[2]/div/div/input</t>
   </si>
   <si>
+    <t>admin123</t>
+  </si>
+  <si>
     <t>输入密码</t>
   </si>
   <si>
     <t>click</t>
   </si>
   <si>
+    <t>//*[@id="app"]/div/form/label[2]/span[1]</t>
+  </si>
+  <si>
+    <t>勾选同意</t>
+  </si>
+  <si>
     <t>//*[@id="app"]/div/form/div[3]/div/button</t>
   </si>
   <si>
@@ -105,34 +115,55 @@
     <t>assert_txt</t>
   </si>
   <si>
-    <t>//*[@id="app"]/div/div[1]/div[1]/a/h1</t>
-  </si>
-  <si>
-    <t>中资创智管理系统</t>
+    <t>//*[@id="app-main"]/div[1]/main/div[3]/h3</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
   <si>
     <t>断言是否登录成功</t>
   </si>
   <si>
-    <t>//*[@id="app"]/div/div[2]/section/div/div/div[1]/form/div[1]/div/div/div/div[1]/input</t>
-  </si>
-  <si>
-    <t>点击项目下拉输入框</t>
+    <t>自动化测试用例名称：Manage RTO</t>
+  </si>
+  <si>
+    <t>//*[@id="app-main"]/div[1]/main/div[2]/div[2]/div[2]/a[2]/button</t>
+  </si>
+  <si>
+    <t>点击跳转Manage RTO页面</t>
   </si>
   <si>
     <t>强制等待3秒</t>
   </si>
   <si>
-    <t>/html/body/div[3]/div[1]/div[1]/ul/li/span[contains(text(), "演示项目1")]</t>
-  </si>
-  <si>
-    <t>点击名称是“演示项目1”的选项</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/div[2]/section/div/div/div[1]/form/div[5]/div/div/button[1]</t>
+    <t>//*[@id="app-main"]/div[1]/div/header/div/div[2]/form/div[1]/div[2]/div/div/div/div/input</t>
+  </si>
+  <si>
+    <t>点击Region筛选框</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[1]/div[1]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>点击名称是“Africa”的选项</t>
+  </si>
+  <si>
+    <t>//*[@id="app-main"]/div[1]/div/header/div/div[3]/button[1]</t>
   </si>
   <si>
     <t>点击“搜索”按钮</t>
+  </si>
+  <si>
+    <t>自动化测试用例名称：重置筛选项</t>
+  </si>
+  <si>
+    <t>//*[@id="app-main"]/div[1]/div/header/div/div[3]/button[2]</t>
+  </si>
+  <si>
+    <t>点击“重置”按钮</t>
+  </si>
+  <si>
+    <t>自动化测试用例名称：关闭浏览器</t>
   </si>
   <si>
     <t>quit</t>
@@ -146,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -162,7 +193,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,14 +206,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,22 +264,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,56 +312,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,14 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -304,7 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,21 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,13 +607,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +630,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -767,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1121,10 +1152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1248,11 +1279,11 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>123456</v>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1260,13 +1291,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1274,16 +1308,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1291,36 +1322,53 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1339,13 +1387,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.54545454545455" customWidth="1"/>
     <col min="2" max="2" width="12.9090909090909" customWidth="1"/>
@@ -1358,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1397,16 +1445,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1420,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1428,16 +1476,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1445,13 +1493,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1462,13 +1507,47 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>34</v>
+      <c r="F9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1485,8 +1564,104 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D7:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="5.54545454545455" customWidth="1"/>
+    <col min="2" max="2" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="16.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="96.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="16.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="33.1818181818182" customWidth="1"/>
+    <col min="7" max="8" width="9.54545454545454" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1502,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1547,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1555,12 +1730,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
+        <v>49</v>
+      </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
